--- a/TemplateGOTests/data/test.xlsx
+++ b/TemplateGOTests/data/test.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB42AEF-65CC-4407-BDAA-A4F7C278DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51599920-4672-4765-8005-C34B13771F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="0" windowWidth="19890" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="345" windowWidth="19890" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性替换" sheetId="1" r:id="rId1"/>
     <sheet name="第二个Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="图表" sheetId="3" r:id="rId3"/>
+    <sheet name="测试数据" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>TemplateGO 测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +114,117 @@
   </si>
   <si>
     <t>这个应该也被换了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>${history}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${history|list}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>=age</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>className</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>杨1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3年二班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个属性拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${name} 的母亲叫 ${parents[1].name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,13 +256,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,19 +299,442 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -189,9 +747,1218 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>测试</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>杨1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杨2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>张1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>张2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>杨利</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>测试</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>测试数据!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C221-44B4-A500-01B53F44E4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>杨1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杨2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>张1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>张2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>杨利</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>测试</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>测试数据!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C221-44B4-A500-01B53F44E4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>杨1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杨2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>张1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>张2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>杨利</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>测试</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>测试数据!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C221-44B4-A500-01B53F44E4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1011820944"/>
+        <c:axId val="1011820112"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>测试数据!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>杨1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杨2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>张1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>张2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>杨利</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>测试</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>测试数据!$J$4:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C221-44B4-A500-01B53F44E4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1203969824"/>
+        <c:axId val="1203977312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011820944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011820112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011820112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011820944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1203977312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1203969824"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1203969824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1203977312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{90470CA8-3C2B-4BA3-BF9F-6D6108E8EED2}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273C5F18-0687-44D9-D8F1-66E6A53B2AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91EB3512-A16C-4A50-9630-B57999BB5DF3}" name="表1" displayName="表1" ref="A2:C9" totalsRowShown="0">
-  <autoFilter ref="A2:C9" xr:uid="{91EB3512-A16C-4A50-9630-B57999BB5DF3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91EB3512-A16C-4A50-9630-B57999BB5DF3}" name="表1" displayName="表1" ref="A2:C10" totalsRowShown="0">
+  <autoFilter ref="A2:C10" xr:uid="{91EB3512-A16C-4A50-9630-B57999BB5DF3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{223FB6C2-1126-422A-B9F8-F561B89EA667}" name="#">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
@@ -200,6 +1967,31 @@
     <tableColumn id="3" xr3:uid="{EC6CC58D-F57D-48D1-8BE3-21EDE77E71B7}" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}" name="表2" displayName="表2" ref="B3:J9" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B3:J9" xr:uid="{016E1EEC-8F15-4F84-AC33-D5F0EF0ADD1E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0D7F65C1-6644-4295-985A-CA00CE1CA4FE}" name="姓名" totalsRowLabel="汇总" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A2A5F9A7-FCA2-4FB8-9E89-A19E366A9386}" name="性别" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{DB657415-D666-410E-AA33-D2DF72FC3DD8}" name="生日" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E269E7DF-8682-4144-91EB-E324D6D59097}" name="年龄" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{534B4F28-2340-4708-8B9B-2D722E7912EC}" name="班级" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{70DB4FF8-56CB-4DF3-A349-F94005531784}" name="语文" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A6028916-9187-42DB-B73A-12D71546BFF9}" name="数学" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{355D998E-A109-417D-A9D0-808856E33E5F}" name="英文" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{FEF11A4C-1260-470E-B6BF-FFE3D0CA14EF}" name="总分" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>SUM(G4:I4)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="1111" altTextSummary="2222"/>
+    </ext>
+  </extLst>
 </table>
 </file>
 
@@ -466,7 +2258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -475,16 +2267,16 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -579,6 +2371,18 @@
       </c>
       <c r="C9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>ROW()-2</f>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -608,10 +2412,10 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -620,4 +2424,293 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07B48BF-A35D-4402-A424-C36A93E45C90}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" activeCellId="2" sqref="B4:B9 G4:I9 J4:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44830</v>
+      </c>
+      <c r="E4" s="1">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1">
+        <v>86</v>
+      </c>
+      <c r="H4" s="1">
+        <v>88</v>
+      </c>
+      <c r="I4" s="1">
+        <v>75</v>
+      </c>
+      <c r="J4" s="1">
+        <f>SUM(G4:I4)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44830</v>
+      </c>
+      <c r="E5" s="1">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1">
+        <v>90</v>
+      </c>
+      <c r="I5" s="1">
+        <v>76</v>
+      </c>
+      <c r="J5" s="1">
+        <f>SUM(G5:I5)</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44830</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1">
+        <v>99</v>
+      </c>
+      <c r="J6" s="1">
+        <f>SUM(G6:I6)</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44830</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1">
+        <v>76</v>
+      </c>
+      <c r="H7" s="1">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1">
+        <f>SUM(G7:I7)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44830</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1">
+        <v>85</v>
+      </c>
+      <c r="H8" s="1">
+        <v>76</v>
+      </c>
+      <c r="I8" s="1">
+        <v>88</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" ref="J8" si="0">SUM(G8:I8)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44830</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1">
+        <v>77</v>
+      </c>
+      <c r="H9" s="1">
+        <v>79</v>
+      </c>
+      <c r="I9" s="1">
+        <v>96</v>
+      </c>
+      <c r="J9" s="1">
+        <f>SUM(G9:I9)</f>
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B4:B9">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/TemplateGOTests/data/test.xlsx
+++ b/TemplateGOTests/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51599920-4672-4765-8005-C34B13771F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54559F3-C771-41AB-B2AE-E72CF2BB9214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="345" windowWidth="19890" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>TemplateGO 测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,22 @@
   </si>
   <si>
     <t>${name} 的母亲叫 ${parents[1].name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${name} 你好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有其它内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有${age}岁了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数有其它内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1957,8 +1973,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91EB3512-A16C-4A50-9630-B57999BB5DF3}" name="表1" displayName="表1" ref="A2:C10" totalsRowShown="0">
-  <autoFilter ref="A2:C10" xr:uid="{91EB3512-A16C-4A50-9630-B57999BB5DF3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91EB3512-A16C-4A50-9630-B57999BB5DF3}" name="表1" displayName="表1" ref="A2:C12" totalsRowShown="0">
+  <autoFilter ref="A2:C12" xr:uid="{91EB3512-A16C-4A50-9630-B57999BB5DF3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{223FB6C2-1126-422A-B9F8-F561B89EA667}" name="#">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
@@ -2258,7 +2274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -2383,6 +2399,30 @@
       </c>
       <c r="C10" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>ROW()-2</f>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>ROW()-2</f>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
